--- a/Excel/ProjectS/Datas/__tables__.xlsx
+++ b/Excel/ProjectS/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31875" windowHeight="6885"/>
+    <workbookView windowWidth="32115" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -116,45 +116,6 @@
   </si>
   <si>
     <t>c,s</t>
-  </si>
-  <si>
-    <t>ServerStartConfig.TbStartMachine</t>
-  </si>
-  <si>
-    <t>StartMachineConfig</t>
-  </si>
-  <si>
-    <t>Server/StartMachineConfig.xlsx</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>ServerStartConfig.TbStartProcess</t>
-  </si>
-  <si>
-    <t>StartProcessConfig</t>
-  </si>
-  <si>
-    <t>Server/StartProcessConfig.xlsx</t>
-  </si>
-  <si>
-    <t>ServerStartConfig.TbStartScene</t>
-  </si>
-  <si>
-    <t>StartSceneConfig</t>
-  </si>
-  <si>
-    <t>Server/StartSceneConfig.xlsx</t>
-  </si>
-  <si>
-    <t>ServerStartConfig.TbStartZone</t>
-  </si>
-  <si>
-    <t>StartZoneConfig</t>
-  </si>
-  <si>
-    <t>Server/StartZoneConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1096,13 +1057,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="$A5:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="55.75" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
@@ -1230,74 +1191,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/ProjectS/Datas/__tables__.xlsx
+++ b/Excel/ProjectS/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>c,s</t>
+  </si>
+  <si>
+    <t>SkillConfig.TbSkillCanvas</t>
+  </si>
+  <si>
+    <t>SkillCanvasConfig</t>
+  </si>
+  <si>
+    <t>SkillConfig/SkillCanvas.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1057,13 +1066,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="55.75" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
@@ -1191,6 +1200,20 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/ProjectS/Datas/__tables__.xlsx
+++ b/Excel/ProjectS/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32115" windowHeight="7470"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>SkillConfig/SkillCanvas.xlsx</t>
+  </si>
+  <si>
+    <t>UnitConfig.TbUnitRes</t>
+  </si>
+  <si>
+    <t>UnitResConfig</t>
+  </si>
+  <si>
+    <t>UnitConfig/UnitRes.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1066,13 +1075,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="55.75" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
@@ -1214,6 +1223,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/ProjectS/Datas/__tables__.xlsx
+++ b/Excel/ProjectS/Datas/__tables__.xlsx
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Excel/ProjectS/Datas/__tables__.xlsx
+++ b/Excel/ProjectS/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>UnitConfig/UnitRes.xlsx</t>
+  </si>
+  <si>
+    <t>SceneConfig.TbSceneBase</t>
+  </si>
+  <si>
+    <t>SceneBaseConfig</t>
+  </si>
+  <si>
+    <t>SceneConfig/SceneBase.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1075,13 +1084,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="55.75" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
@@ -1237,6 +1246,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/ProjectS/Datas/__tables__.xlsx
+++ b/Excel/ProjectS/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="18525" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -134,6 +134,24 @@
   </si>
   <si>
     <t>UnitConfig/UnitRes.xlsx</t>
+  </si>
+  <si>
+    <t>UnitConfig.TbUnitBase</t>
+  </si>
+  <si>
+    <t>UnitBaseConfig</t>
+  </si>
+  <si>
+    <t>UnitConfig/UnitBase.xlsx</t>
+  </si>
+  <si>
+    <t>UnitConfig.TbUnitAttribute</t>
+  </si>
+  <si>
+    <t>UnitAttributeConfig</t>
+  </si>
+  <si>
+    <t>UnitConfig/UnitAttribute.xlsx</t>
   </si>
   <si>
     <t>SceneConfig.TbSceneBase</t>
@@ -1084,13 +1102,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="55.75" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
@@ -1260,6 +1278,34 @@
         <v>42</v>
       </c>
     </row>
+    <row r="8" customFormat="1" spans="2:5">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/ProjectS/Datas/__tables__.xlsx
+++ b/Excel/ProjectS/Datas/__tables__.xlsx
@@ -1104,8 +1104,8 @@
   <sheetPr/>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
